--- a/Docs/Cornell Note.xlsx
+++ b/Docs/Cornell Note.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\A1221I1_HuynhKimSon\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeGym\Study\A1221I1_HuynhKimSon\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D3301-1EAE-4E1C-8138-602BC5132385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173026CF-14F4-467B-A40D-0D5DEDD64826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="495" windowWidth="14820" windowHeight="15255" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9072" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SS1_1" sheetId="3" r:id="rId1"/>
@@ -1831,24 +1831,24 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="88.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="88.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -1947,126 +1947,126 @@
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>9</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>10</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>11</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>12</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>13</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>14</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>15</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>16</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>17</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>18</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>19</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>20</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>21</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>22</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>23</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>24</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>25</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>26</v>
       </c>
@@ -2085,24 +2085,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B064C3B2-FB3E-4962-9B21-CDB62937298A}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
-    <col min="2" max="2" width="26.5703125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="124.7109375" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.109375" style="30"/>
+    <col min="2" max="2" width="26.5546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="124.6640625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B1" s="30" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>180</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="109.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="109.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
         <v>74</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="309.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="309.60000000000002" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="30" t="s">
         <v>220</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="265.14999999999998" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="265.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>94</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="159.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>78</v>
       </c>
@@ -2142,16 +2142,16 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C8" s="31"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C12" s="32"/>
     </row>
   </sheetData>
@@ -2167,24 +2167,24 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="88.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="88.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="2:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -2239,154 +2239,154 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>6</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>7</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="2:4" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>8</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>9</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>10</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>11</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>12</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>13</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>14</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>15</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>16</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>17</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>18</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>19</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>20</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>21</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>22</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>23</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>24</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>25</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>26</v>
       </c>
@@ -2405,24 +2405,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0497F6FB-E454-4078-8F33-3457BA7F036C}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.109375" style="30"/>
     <col min="2" max="2" width="41" style="30" customWidth="1"/>
-    <col min="3" max="3" width="124.7109375" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="3" max="3" width="124.6640625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B1" s="30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>180</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="72" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
         <v>99</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="54" x14ac:dyDescent="0.35">
       <c r="B4" s="30" t="s">
         <v>101</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="323.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="323.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>103</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="126" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>105</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="198" x14ac:dyDescent="0.35">
       <c r="B7" s="30" t="s">
         <v>228</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="30" t="s">
         <v>230</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="36" x14ac:dyDescent="0.35">
       <c r="B9" s="30" t="s">
         <v>232</v>
       </c>
@@ -2486,10 +2486,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C12" s="32"/>
     </row>
   </sheetData>
@@ -2501,28 +2501,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD91093-1FCE-4CED-9C55-9787E4BC1BF1}">
   <dimension ref="B1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="88.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="88.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="2:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="112.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>9</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>10</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>11</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>12</v>
       </c>
@@ -2659,98 +2659,98 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>13</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>14</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>15</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>16</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>17</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>18</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>19</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>20</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>21</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>22</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>23</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>24</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>25</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>26</v>
       </c>
@@ -2771,24 +2771,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D0772-B73F-4253-B8AB-8A5FBF172760}">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.109375" style="30"/>
     <col min="2" max="2" width="41" style="30" customWidth="1"/>
-    <col min="3" max="3" width="124.7109375" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="3" max="3" width="124.6640625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B1" s="30" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>180</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="36" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
         <v>107</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="225" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="198" x14ac:dyDescent="0.35">
       <c r="B4" s="30" t="s">
         <v>236</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="36" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>105</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="72" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>239</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.35">
       <c r="B7" s="30" t="s">
         <v>241</v>
       </c>
@@ -2836,33 +2836,33 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C8" s="31"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C9" s="31"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C10" s="30" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C11" s="32" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C12" s="32" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C13" s="30" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C14" s="30" t="s">
         <v>247</v>
       </c>
@@ -2880,24 +2880,24 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="22" style="13" customWidth="1"/>
-    <col min="4" max="4" width="88.28515625" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="13"/>
+    <col min="4" max="4" width="88.33203125" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
         <v>127</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="2:6" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10">
         <v>1</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <v>4</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <v>5</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
         <v>6</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>7</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="171" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>8</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>9</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>10</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>11</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <v>12</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
         <v>13</v>
       </c>
@@ -3042,98 +3042,98 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>14</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <v>15</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>16</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10">
         <v>17</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>18</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10">
         <v>19</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
         <v>20</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10">
         <v>21</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10">
         <v>22</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10">
         <v>23</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>24</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="10">
         <v>25</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="10">
         <v>26</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="10">
         <v>27</v>
       </c>
@@ -3156,24 +3156,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0440F324-D348-45B4-B637-666AC6954729}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.109375" style="30"/>
     <col min="2" max="2" width="41" style="30" customWidth="1"/>
-    <col min="3" max="3" width="124.7109375" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="3" max="3" width="124.6640625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B1" s="30" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>180</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="225" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="198" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
         <v>139</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="90" x14ac:dyDescent="0.35">
       <c r="B4" s="30" t="s">
         <v>250</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="276" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="276" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>141</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="281.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="252" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>253</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.35">
       <c r="B7" s="30" t="s">
         <v>145</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="36" x14ac:dyDescent="0.35">
       <c r="B8" s="30" t="s">
         <v>256</v>
       </c>
@@ -3229,13 +3229,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C9" s="31"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C12" s="32"/>
     </row>
   </sheetData>
@@ -3251,24 +3251,24 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="19" customWidth="1"/>
     <col min="3" max="3" width="22" style="20" customWidth="1"/>
-    <col min="4" max="4" width="88.28515625" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="20"/>
+    <col min="4" max="4" width="88.33203125" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="42" t="s">
         <v>149</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
     </row>
-    <row r="3" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22">
         <v>1</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="97.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="22">
         <v>2</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="22">
         <v>3</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="22">
         <v>4</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="22">
         <v>5</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="22">
         <v>6</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="22">
         <v>7</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="22">
         <v>8</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22">
         <v>9</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="22">
         <v>10</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="22">
         <v>11</v>
       </c>
@@ -3398,91 +3398,91 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="22">
         <v>12</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
     </row>
-    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="22">
         <v>13</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22">
         <v>14</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="22">
         <v>15</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="22">
         <v>16</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22">
         <v>17</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="22">
         <v>18</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="22">
         <v>19</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="22">
         <v>20</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="22">
         <v>21</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="22">
         <v>22</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="22">
         <v>23</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="22">
         <v>24</v>
       </c>
@@ -3505,20 +3505,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.109375" style="30"/>
     <col min="2" max="2" width="41" style="30" customWidth="1"/>
-    <col min="3" max="3" width="124.7109375" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="3" max="3" width="124.6640625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B1" s="30" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>180</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
         <v>259</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="90" x14ac:dyDescent="0.35">
       <c r="B4" s="30" t="s">
         <v>153</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="36" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>155</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="36" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>263</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="70.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="30" t="s">
         <v>265</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="124.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="124.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="30" t="s">
         <v>267</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="30" t="s">
         <v>269</v>
       </c>
@@ -3582,10 +3582,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C12" s="32"/>
     </row>
   </sheetData>
@@ -3601,24 +3601,24 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="12" customWidth="1"/>
     <col min="3" max="3" width="22" style="13" customWidth="1"/>
-    <col min="4" max="4" width="88.28515625" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="13"/>
+    <col min="4" max="4" width="88.33203125" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
         <v>171</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10">
         <v>1</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="318.60000000000002" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="318.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <v>4</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <v>5</v>
       </c>
@@ -3685,42 +3685,42 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
         <v>6</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>7</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>8</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>9</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>10</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>11</v>
       </c>
@@ -3730,91 +3730,91 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <v>12</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
         <v>13</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>14</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <v>15</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>16</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10">
         <v>17</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>18</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10">
         <v>19</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
         <v>20</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10">
         <v>21</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10">
         <v>22</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="10">
         <v>23</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>24</v>
       </c>
@@ -3837,15 +3837,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.109375" style="30"/>
     <col min="2" max="2" width="41" style="30" customWidth="1"/>
-    <col min="3" max="3" width="124.7109375" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="3" max="3" width="124.6640625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>180</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="54" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
         <v>181</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="225" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="216" x14ac:dyDescent="0.35">
       <c r="B4" s="30" t="s">
         <v>184</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="352.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="352.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
@@ -3888,12 +3888,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C7" s="32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="54" x14ac:dyDescent="0.35">
       <c r="B8" s="30" t="s">
         <v>17</v>
       </c>
@@ -3901,10 +3901,10 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C12" s="32"/>
     </row>
   </sheetData>
@@ -3920,20 +3920,20 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
-    <col min="2" max="2" width="24.5703125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="80.42578125" style="31" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.109375" style="30"/>
+    <col min="2" max="2" width="24.5546875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="80.44140625" style="31" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.35">
       <c r="B1" s="31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="33" t="s">
         <v>180</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="150" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="144" x14ac:dyDescent="0.35">
       <c r="B3" s="31" t="s">
         <v>171</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="72" x14ac:dyDescent="0.35">
       <c r="B4" s="31" t="s">
         <v>272</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="221.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="221.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
         <v>274</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="258.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="258.60000000000002" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
         <v>276</v>
       </c>
@@ -3973,16 +3973,16 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C8" s="32"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C12" s="32"/>
     </row>
   </sheetData>
@@ -3998,20 +3998,20 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
-    <col min="2" max="2" width="24.5703125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="80.42578125" style="31" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.109375" style="30"/>
+    <col min="2" max="2" width="24.5546875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="80.44140625" style="31" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.35">
       <c r="B1" s="31" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="33" t="s">
         <v>180</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="72" x14ac:dyDescent="0.35">
       <c r="B3" s="31" t="s">
         <v>278</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="72" x14ac:dyDescent="0.35">
       <c r="B4" s="31" t="s">
         <v>280</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
         <v>282</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="108" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
         <v>284</v>
       </c>
@@ -4051,16 +4051,16 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C8" s="32"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C12" s="32"/>
     </row>
   </sheetData>
@@ -4076,24 +4076,24 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="88.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="88.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="2:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>9</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>10</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>11</v>
       </c>
@@ -4225,105 +4225,105 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>12</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>13</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>14</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>15</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>16</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>17</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>18</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>19</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>20</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>21</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>22</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>23</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>24</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>25</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>26</v>
       </c>
@@ -4346,20 +4346,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.109375" style="30"/>
     <col min="2" max="2" width="41" style="30" customWidth="1"/>
-    <col min="3" max="3" width="124.7109375" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="3" max="3" width="124.6640625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B1" s="30" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>180</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="268.14999999999998" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="268.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
         <v>191</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="168.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="162" x14ac:dyDescent="0.35">
       <c r="B4" s="30" t="s">
         <v>193</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="108" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>195</v>
       </c>
@@ -4391,12 +4391,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="108" x14ac:dyDescent="0.35">
       <c r="C6" s="32" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="180" x14ac:dyDescent="0.35">
       <c r="B7" s="30" t="s">
         <v>198</v>
       </c>
@@ -4404,13 +4404,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C8" s="31"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C12" s="32"/>
     </row>
   </sheetData>
@@ -4426,24 +4426,24 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="88.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="2.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="88.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="2:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -4542,126 +4542,126 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>9</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>10</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>11</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>12</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>13</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>14</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>15</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>16</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>17</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>18</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>19</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>20</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>21</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>22</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>23</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>24</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>25</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>26</v>
       </c>
@@ -4681,24 +4681,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F132DC-681B-49CF-9C17-33796F069FC3}">
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.109375" style="30"/>
     <col min="2" max="2" width="41" style="30" customWidth="1"/>
-    <col min="3" max="3" width="124.7109375" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="3" max="3" width="124.6640625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B1" s="30" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>180</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="54" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
         <v>57</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="301.14999999999998" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="301.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="30" t="s">
         <v>202</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="108" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>68</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="108" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>205</v>
       </c>
@@ -4738,16 +4738,16 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C8" s="31"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C12" s="32"/>
     </row>
   </sheetData>
@@ -4763,23 +4763,23 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="88.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="88.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="37">
         <v>1</v>
       </c>
@@ -4803,14 +4803,14 @@
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="38"/>
       <c r="C5" s="36"/>
       <c r="D5" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>2</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>3</v>
       </c>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>4</v>
       </c>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>5</v>
       </c>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>6</v>
       </c>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>7</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>10</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>11</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>12</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>13</v>
       </c>
@@ -4946,91 +4946,91 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>14</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>15</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>16</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>17</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>18</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>19</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>20</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>21</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>22</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>23</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>24</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>25</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>26</v>
       </c>
@@ -5056,20 +5056,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.109375" style="30"/>
     <col min="2" max="2" width="41" style="30" customWidth="1"/>
-    <col min="3" max="3" width="124.7109375" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="30"/>
+    <col min="3" max="3" width="124.6640625" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B1" s="30" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
         <v>180</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="90" x14ac:dyDescent="0.35">
       <c r="B3" s="30" t="s">
         <v>208</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="90" x14ac:dyDescent="0.35">
       <c r="B4" s="30" t="s">
         <v>210</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="126" x14ac:dyDescent="0.35">
       <c r="B5" s="30" t="s">
         <v>212</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="108" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
         <v>214</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="162" x14ac:dyDescent="0.35">
       <c r="B7" s="30" t="s">
         <v>216</v>
       </c>
@@ -5117,13 +5117,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C8" s="31"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C12" s="32"/>
     </row>
   </sheetData>
@@ -5139,24 +5139,24 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="4" width="88.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="88.33203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="2:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -5255,126 +5255,126 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>9</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>10</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>11</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>12</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>13</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>14</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>15</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>16</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>17</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>18</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>19</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>20</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>21</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>22</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>23</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>24</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>25</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>26</v>
       </c>
